--- a/mes-prm-core/表结构设计/巡检方案/巡检方案_魏建巍.xlsx
+++ b/mes-prm-core/表结构设计/巡检方案/巡检方案_魏建巍.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500800_{1D5DD717-7E07-4885-9181-2E7023CB7D23}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WangYang\Desktop\跪也\巡检表结构设计\巡检方案定义\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3C58F045-DEC9-4CF2-8BC4-22933A5CD214}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17892" windowHeight="2148" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17892" windowHeight="2148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="巡检方案主表" sheetId="4" r:id="rId1"/>
     <sheet name="巡检方案子表 " sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P6"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="91">
   <si>
     <t>数据库表名</t>
   </si>
@@ -164,9 +168,6 @@
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>1=未启用，2=已启用，3=已停用，</t>
   </si>
   <si>
     <t>DEFPLAN</t>
@@ -282,6 +283,48 @@
   </si>
   <si>
     <t>PRM_PLAN_B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=已停用，1=已启用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LAN_ORDER</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -289,7 +332,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +349,29 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -402,7 +468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -415,6 +481,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -739,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -757,21 +827,21 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1039,16 +1109,16 @@
       <c r="E18" s="5">
         <v>2</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>49</v>
+      <c r="F18" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>48</v>
@@ -1063,10 +1133,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>15</v>
@@ -1079,10 +1149,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>19</v>
@@ -1095,10 +1165,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>15</v>
@@ -1111,10 +1181,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>15</v>
@@ -1127,10 +1197,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>48</v>
@@ -1142,15 +1212,15 @@
         <v>1</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>41</v>
@@ -1163,10 +1233,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>15</v>
@@ -1179,10 +1249,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>19</v>
@@ -1195,10 +1265,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>41</v>
@@ -1211,10 +1281,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>15</v>
@@ -1227,13 +1297,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>16</v>
@@ -1243,10 +1313,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>41</v>
@@ -1270,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1290,21 +1360,21 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1331,7 +1401,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
@@ -1346,7 +1416,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -1362,10 +1432,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>15</v>
@@ -1378,10 +1448,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>19</v>
@@ -1394,10 +1464,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>15</v>
@@ -1409,30 +1479,30 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>16</v>
@@ -1440,15 +1510,15 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>16</v>
@@ -1456,12 +1526,12 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>15</v>
@@ -1474,49 +1544,49 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>16</v>
@@ -1526,13 +1596,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>16</v>
@@ -1542,13 +1612,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>16</v>
@@ -1558,13 +1628,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>16</v>
@@ -1574,13 +1644,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>16</v>
@@ -1590,19 +1660,35 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1611,6 +1697,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>